--- a/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T16:16:41+00:00</t>
+    <t>2023-03-19T16:22:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T16:22:10+00:00</t>
+    <t>2023-03-20T09:04:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T09:04:21+00:00</t>
+    <t>2023-03-20T09:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T09:08:06+00:00</t>
+    <t>2023-03-20T10:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:34:11+00:00</t>
+    <t>2023-03-20T10:37:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -757,7 +757,7 @@
     <t>isArchived</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/PDSmIsArchived}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/pdsm-is-archived}
 </t>
   </si>
   <si>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:37:48+00:00</t>
+    <t>2023-03-20T10:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:38:51+00:00</t>
+    <t>2023-03-20T10:43:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:43:12+00:00</t>
+    <t>2023-03-20T10:49:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -639,7 +639,7 @@
 - TRE_A00-ProducteurDocNonPS, OID : 1.2.250.1.213.1.1.4.6 
 - TRE_R209-TypeActivite, OID : 1.2.250.1.213.2.2 
 - TRE_R02-SecteurActivite, OID : 1.2.250.1.71.4.2.4 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J59-ContentTypeCode-DMP). 
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J03-XdsContentTypeCode-CISIS peut être utilisé. {null}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J03-XdsContentTypeCode-CISIS peut être utilisé. {f:extension[designationType]}</t>
   </si>
   <si>
     <t>typeActivite : [1..1] Code</t>
@@ -761,7 +761,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Extension définie par ce volet pour distinguer les lots de soumission archivés des actives. </t>
+    <t>Extension définie par ce volet pour distinguer les lots de soumission archivés des actives.</t>
   </si>
   <si>
     <t>Extension définie par le volet ANS "Volet Partage de documents de santé en mobilité" sur les ressources List et DocumentReference pour distinguer les lots de soumission et les fiches archivés des actives.</t>
@@ -1007,7 +1007,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Référence vers la ressource Patient contained titulaire du dossier. </t>
+    <t>Référence vers la ressource Patient contained titulaire du dossier.</t>
   </si>
   <si>
     <t>The common subject (or patient) of the resources that are in the list if there is one.</t>
@@ -1105,7 +1105,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-source:Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut "ihe-authorOrg" n’est pas renseigné, autrement dit si l’auteur est une personne physique ou un dispositif. {null}</t>
+constr-bind-source:Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut "ihe-authorOrg" n’est pas renseigné, autrement dit si l’auteur est une personne physique ou un dispositif. {f:source}</t>
   </si>
   <si>
     <t>.participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=PSN,determinerCode=INST] or .participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=DEV,determinerCode=INST]</t>
@@ -1141,7 +1141,7 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}constr-bind-authororg:Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut "source" n’est pas renseigné, autrement dit si l’auteur est une personne morale, la cardinalité est contrainte à [1..1].
-La ressource référencée doit être présente sous l’élément List.contained. {null}</t>
+La ressource référencée doit être présente sous l’élément List.contained. {f:source/f:extension[authorOrg]}</t>
   </si>
   <si>
     <t>auteur : [1..1] Identifiant</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:49:37+00:00</t>
+    <t>2023-03-20T10:53:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:53:05+00:00</t>
+    <t>2023-03-20T10:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
+++ b/ig/nr/correctErrors/StructureDefinition-pdsm-submissionset-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:58:46+00:00</t>
+    <t>2023-03-20T11:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
